--- a/Manual Testing/TestCase_TestApp(CIS).xlsx
+++ b/Manual Testing/TestCase_TestApp(CIS).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Test case\testapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Test case\testapp\Manual Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3588129D-EF83-40FA-8B42-436FD9631FE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D32A09-ABB2-430C-BE4A-68C59648C297}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6825" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6825" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="Remember_Me_checkbox_error">TestCase!$J$17</definedName>
   </definedNames>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2990,124 +2989,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3125,12 +3006,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3194,6 +3069,130 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4521,7 +4520,7 @@
   <dimension ref="C1:E21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
@@ -4531,15 +4530,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5">
-      <c r="D1" s="291" t="s">
+      <c r="D1" s="322" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="2" spans="3:5">
-      <c r="D2" s="292"/>
+      <c r="D2" s="323"/>
     </row>
     <row r="3" spans="3:5">
-      <c r="D3" s="292"/>
+      <c r="D3" s="323"/>
     </row>
     <row r="5" spans="3:5" ht="18.75">
       <c r="C5" s="205" t="s">
@@ -4745,7 +4744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:X22"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="AB50" sqref="AB50"/>
     </sheetView>
   </sheetViews>
@@ -5253,7 +5252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z251"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
@@ -5275,39 +5274,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="293" t="s">
+      <c r="B4" s="336" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="293"/>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
+      <c r="C4" s="336"/>
+      <c r="D4" s="336"/>
+      <c r="E4" s="336"/>
+      <c r="F4" s="336"/>
+      <c r="G4" s="336"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="294" t="s">
+      <c r="C5" s="332" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="294" t="s">
+      <c r="C6" s="332" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="294"/>
-      <c r="E6" s="294"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="294"/>
+      <c r="D6" s="332"/>
+      <c r="E6" s="332"/>
+      <c r="F6" s="332"/>
+      <c r="G6" s="332"/>
       <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
@@ -5323,11 +5322,11 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="294"/>
-      <c r="D7" s="294"/>
-      <c r="E7" s="294"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="294"/>
+      <c r="C7" s="332"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
       <c r="I7" s="7">
         <f>C15</f>
         <v>17</v>
@@ -5342,13 +5341,13 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="294" t="s">
+      <c r="C8" s="332" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="294"/>
-      <c r="E8" s="294"/>
-      <c r="F8" s="294"/>
-      <c r="G8" s="294"/>
+      <c r="D8" s="332"/>
+      <c r="E8" s="332"/>
+      <c r="F8" s="332"/>
+      <c r="G8" s="332"/>
       <c r="I8" s="7">
         <f>D15</f>
         <v>7</v>
@@ -5363,13 +5362,13 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="294" t="s">
+      <c r="C9" s="332" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="294"/>
-      <c r="E9" s="294"/>
-      <c r="F9" s="294"/>
-      <c r="G9" s="294"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
       <c r="I9" s="7">
         <f>E15</f>
         <v>0</v>
@@ -5396,11 +5395,11 @@
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="294"/>
-      <c r="D10" s="294"/>
-      <c r="E10" s="294"/>
-      <c r="F10" s="294"/>
-      <c r="G10" s="294"/>
+      <c r="C10" s="332"/>
+      <c r="D10" s="332"/>
+      <c r="E10" s="332"/>
+      <c r="F10" s="332"/>
+      <c r="G10" s="332"/>
       <c r="I10" s="7">
         <f>F15</f>
         <v>0</v>
@@ -5416,22 +5415,22 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="295" t="s">
+      <c r="B11" s="333" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="295"/>
-      <c r="D11" s="295"/>
-      <c r="E11" s="295"/>
-      <c r="F11" s="295"/>
-      <c r="G11" s="295"/>
+      <c r="C11" s="333"/>
+      <c r="D11" s="333"/>
+      <c r="E11" s="333"/>
+      <c r="F11" s="333"/>
+      <c r="G11" s="333"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="295"/>
-      <c r="C12" s="295"/>
-      <c r="D12" s="295"/>
-      <c r="E12" s="295"/>
-      <c r="F12" s="295"/>
-      <c r="G12" s="295"/>
+      <c r="B12" s="333"/>
+      <c r="C12" s="333"/>
+      <c r="D12" s="333"/>
+      <c r="E12" s="333"/>
+      <c r="F12" s="333"/>
+      <c r="G12" s="333"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="13" t="s">
@@ -5566,21 +5565,21 @@
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="296" t="s">
+      <c r="B18" s="334" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="296"/>
-      <c r="D18" s="296"/>
-      <c r="E18" s="296"/>
-      <c r="F18" s="296"/>
-      <c r="G18" s="296"/>
+      <c r="C18" s="334"/>
+      <c r="D18" s="334"/>
+      <c r="E18" s="334"/>
+      <c r="F18" s="334"/>
+      <c r="G18" s="334"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="297" t="s">
+      <c r="B19" s="335" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="297"/>
-      <c r="D19" s="297"/>
+      <c r="C19" s="335"/>
+      <c r="D19" s="335"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31" t="s">
         <v>25</v>
@@ -5590,11 +5589,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="298" t="s">
+      <c r="B20" s="328" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="298"/>
-      <c r="D20" s="298"/>
+      <c r="C20" s="328"/>
+      <c r="D20" s="328"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32" t="s">
         <v>28</v>
@@ -5604,11 +5603,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="298" t="s">
+      <c r="B21" s="328" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="298"/>
-      <c r="D21" s="298"/>
+      <c r="C21" s="328"/>
+      <c r="D21" s="328"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32" t="s">
         <v>28</v>
@@ -5619,306 +5618,306 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="299"/>
-      <c r="C23" s="300" t="s">
+      <c r="B23" s="329"/>
+      <c r="C23" s="330" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="301" t="s">
+      <c r="D23" s="331" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="301"/>
-      <c r="F23" s="301"/>
-      <c r="G23" s="301"/>
+      <c r="E23" s="331"/>
+      <c r="F23" s="331"/>
+      <c r="G23" s="331"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="301"/>
-      <c r="E24" s="301"/>
-      <c r="F24" s="301"/>
-      <c r="G24" s="301"/>
+      <c r="B24" s="329"/>
+      <c r="C24" s="329"/>
+      <c r="D24" s="331"/>
+      <c r="E24" s="331"/>
+      <c r="F24" s="331"/>
+      <c r="G24" s="331"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="301"/>
-      <c r="E25" s="301"/>
-      <c r="F25" s="301"/>
-      <c r="G25" s="301"/>
+      <c r="B25" s="329"/>
+      <c r="C25" s="329"/>
+      <c r="D25" s="331"/>
+      <c r="E25" s="331"/>
+      <c r="F25" s="331"/>
+      <c r="G25" s="331"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="299"/>
-      <c r="C26" s="299"/>
-      <c r="D26" s="301"/>
-      <c r="E26" s="301"/>
-      <c r="F26" s="301"/>
-      <c r="G26" s="301"/>
+      <c r="B26" s="329"/>
+      <c r="C26" s="329"/>
+      <c r="D26" s="331"/>
+      <c r="E26" s="331"/>
+      <c r="F26" s="331"/>
+      <c r="G26" s="331"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="302" t="s">
+      <c r="B27" s="324" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="303" t="s">
+      <c r="C27" s="327" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="304" t="s">
+      <c r="D27" s="326" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="304"/>
-      <c r="F27" s="304"/>
-      <c r="G27" s="304"/>
+      <c r="E27" s="326"/>
+      <c r="F27" s="326"/>
+      <c r="G27" s="326"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="302"/>
-      <c r="C28" s="302"/>
-      <c r="D28" s="304"/>
-      <c r="E28" s="304"/>
-      <c r="F28" s="304"/>
-      <c r="G28" s="304"/>
+      <c r="B28" s="324"/>
+      <c r="C28" s="324"/>
+      <c r="D28" s="326"/>
+      <c r="E28" s="326"/>
+      <c r="F28" s="326"/>
+      <c r="G28" s="326"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="302"/>
-      <c r="C29" s="302"/>
-      <c r="D29" s="304"/>
-      <c r="E29" s="304"/>
-      <c r="F29" s="304"/>
-      <c r="G29" s="304"/>
+      <c r="B29" s="324"/>
+      <c r="C29" s="324"/>
+      <c r="D29" s="326"/>
+      <c r="E29" s="326"/>
+      <c r="F29" s="326"/>
+      <c r="G29" s="326"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="302"/>
-      <c r="C30" s="302"/>
-      <c r="D30" s="304"/>
-      <c r="E30" s="304"/>
-      <c r="F30" s="304"/>
-      <c r="G30" s="304"/>
+      <c r="B30" s="324"/>
+      <c r="C30" s="324"/>
+      <c r="D30" s="326"/>
+      <c r="E30" s="326"/>
+      <c r="F30" s="326"/>
+      <c r="G30" s="326"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="302" t="s">
+      <c r="B31" s="324" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="303" t="s">
+      <c r="C31" s="327" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="304" t="s">
+      <c r="D31" s="326" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="304"/>
-      <c r="F31" s="304"/>
-      <c r="G31" s="304"/>
+      <c r="E31" s="326"/>
+      <c r="F31" s="326"/>
+      <c r="G31" s="326"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="302"/>
-      <c r="C32" s="302"/>
-      <c r="D32" s="304"/>
-      <c r="E32" s="304"/>
-      <c r="F32" s="304"/>
-      <c r="G32" s="304"/>
+      <c r="B32" s="324"/>
+      <c r="C32" s="324"/>
+      <c r="D32" s="326"/>
+      <c r="E32" s="326"/>
+      <c r="F32" s="326"/>
+      <c r="G32" s="326"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="302"/>
-      <c r="C33" s="302"/>
-      <c r="D33" s="304"/>
-      <c r="E33" s="304"/>
-      <c r="F33" s="304"/>
-      <c r="G33" s="304"/>
+      <c r="B33" s="324"/>
+      <c r="C33" s="324"/>
+      <c r="D33" s="326"/>
+      <c r="E33" s="326"/>
+      <c r="F33" s="326"/>
+      <c r="G33" s="326"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="302"/>
-      <c r="C34" s="302"/>
-      <c r="D34" s="304"/>
-      <c r="E34" s="304"/>
-      <c r="F34" s="304"/>
-      <c r="G34" s="304"/>
+      <c r="B34" s="324"/>
+      <c r="C34" s="324"/>
+      <c r="D34" s="326"/>
+      <c r="E34" s="326"/>
+      <c r="F34" s="326"/>
+      <c r="G34" s="326"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="302" t="s">
+      <c r="B35" s="324" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="303" t="s">
+      <c r="C35" s="327" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="304" t="s">
+      <c r="D35" s="326" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="304"/>
-      <c r="F35" s="304"/>
-      <c r="G35" s="304"/>
+      <c r="E35" s="326"/>
+      <c r="F35" s="326"/>
+      <c r="G35" s="326"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="302"/>
-      <c r="C36" s="302"/>
-      <c r="D36" s="304"/>
-      <c r="E36" s="304"/>
-      <c r="F36" s="304"/>
-      <c r="G36" s="304"/>
+      <c r="B36" s="324"/>
+      <c r="C36" s="324"/>
+      <c r="D36" s="326"/>
+      <c r="E36" s="326"/>
+      <c r="F36" s="326"/>
+      <c r="G36" s="326"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="302"/>
-      <c r="C37" s="302"/>
-      <c r="D37" s="304"/>
-      <c r="E37" s="304"/>
-      <c r="F37" s="304"/>
-      <c r="G37" s="304"/>
+      <c r="B37" s="324"/>
+      <c r="C37" s="324"/>
+      <c r="D37" s="326"/>
+      <c r="E37" s="326"/>
+      <c r="F37" s="326"/>
+      <c r="G37" s="326"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="302"/>
-      <c r="C38" s="302"/>
-      <c r="D38" s="304"/>
-      <c r="E38" s="304"/>
-      <c r="F38" s="304"/>
-      <c r="G38" s="304"/>
+      <c r="B38" s="324"/>
+      <c r="C38" s="324"/>
+      <c r="D38" s="326"/>
+      <c r="E38" s="326"/>
+      <c r="F38" s="326"/>
+      <c r="G38" s="326"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="302" t="s">
+      <c r="B39" s="324" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="303" t="s">
+      <c r="C39" s="327" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="304" t="s">
+      <c r="D39" s="326" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="304"/>
-      <c r="F39" s="304"/>
-      <c r="G39" s="304"/>
+      <c r="E39" s="326"/>
+      <c r="F39" s="326"/>
+      <c r="G39" s="326"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="302"/>
-      <c r="C40" s="302"/>
-      <c r="D40" s="304"/>
-      <c r="E40" s="304"/>
-      <c r="F40" s="304"/>
-      <c r="G40" s="304"/>
+      <c r="B40" s="324"/>
+      <c r="C40" s="324"/>
+      <c r="D40" s="326"/>
+      <c r="E40" s="326"/>
+      <c r="F40" s="326"/>
+      <c r="G40" s="326"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="302"/>
-      <c r="C41" s="302"/>
-      <c r="D41" s="304"/>
-      <c r="E41" s="304"/>
-      <c r="F41" s="304"/>
-      <c r="G41" s="304"/>
+      <c r="B41" s="324"/>
+      <c r="C41" s="324"/>
+      <c r="D41" s="326"/>
+      <c r="E41" s="326"/>
+      <c r="F41" s="326"/>
+      <c r="G41" s="326"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="302"/>
-      <c r="C42" s="302"/>
-      <c r="D42" s="304"/>
-      <c r="E42" s="304"/>
-      <c r="F42" s="304"/>
-      <c r="G42" s="304"/>
+      <c r="B42" s="324"/>
+      <c r="C42" s="324"/>
+      <c r="D42" s="326"/>
+      <c r="E42" s="326"/>
+      <c r="F42" s="326"/>
+      <c r="G42" s="326"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="302" t="s">
+      <c r="B43" s="324" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="305" t="s">
+      <c r="C43" s="325" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="304" t="s">
+      <c r="D43" s="326" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="304"/>
-      <c r="F43" s="304"/>
-      <c r="G43" s="304"/>
+      <c r="E43" s="326"/>
+      <c r="F43" s="326"/>
+      <c r="G43" s="326"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="302"/>
-      <c r="C44" s="302"/>
-      <c r="D44" s="304"/>
-      <c r="E44" s="304"/>
-      <c r="F44" s="304"/>
-      <c r="G44" s="304"/>
+      <c r="B44" s="324"/>
+      <c r="C44" s="324"/>
+      <c r="D44" s="326"/>
+      <c r="E44" s="326"/>
+      <c r="F44" s="326"/>
+      <c r="G44" s="326"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="302"/>
-      <c r="C45" s="302"/>
-      <c r="D45" s="304"/>
-      <c r="E45" s="304"/>
-      <c r="F45" s="304"/>
-      <c r="G45" s="304"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="324"/>
+      <c r="D45" s="326"/>
+      <c r="E45" s="326"/>
+      <c r="F45" s="326"/>
+      <c r="G45" s="326"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="302"/>
-      <c r="C46" s="302"/>
-      <c r="D46" s="304"/>
-      <c r="E46" s="304"/>
-      <c r="F46" s="304"/>
-      <c r="G46" s="304"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="324"/>
+      <c r="D46" s="326"/>
+      <c r="E46" s="326"/>
+      <c r="F46" s="326"/>
+      <c r="G46" s="326"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="302" t="s">
+      <c r="B47" s="324" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="305" t="s">
+      <c r="C47" s="325" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="304" t="s">
+      <c r="D47" s="326" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="304"/>
-      <c r="F47" s="304"/>
-      <c r="G47" s="304"/>
+      <c r="E47" s="326"/>
+      <c r="F47" s="326"/>
+      <c r="G47" s="326"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="302"/>
-      <c r="C48" s="302"/>
-      <c r="D48" s="304"/>
-      <c r="E48" s="304"/>
-      <c r="F48" s="304"/>
-      <c r="G48" s="304"/>
+      <c r="B48" s="324"/>
+      <c r="C48" s="324"/>
+      <c r="D48" s="326"/>
+      <c r="E48" s="326"/>
+      <c r="F48" s="326"/>
+      <c r="G48" s="326"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="302"/>
-      <c r="C49" s="302"/>
-      <c r="D49" s="304"/>
-      <c r="E49" s="304"/>
-      <c r="F49" s="304"/>
-      <c r="G49" s="304"/>
+      <c r="B49" s="324"/>
+      <c r="C49" s="324"/>
+      <c r="D49" s="326"/>
+      <c r="E49" s="326"/>
+      <c r="F49" s="326"/>
+      <c r="G49" s="326"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B50" s="302"/>
-      <c r="C50" s="302"/>
-      <c r="D50" s="304"/>
-      <c r="E50" s="304"/>
-      <c r="F50" s="304"/>
-      <c r="G50" s="304"/>
+      <c r="B50" s="324"/>
+      <c r="C50" s="324"/>
+      <c r="D50" s="326"/>
+      <c r="E50" s="326"/>
+      <c r="F50" s="326"/>
+      <c r="G50" s="326"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="302" t="s">
+      <c r="B51" s="324" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="305" t="s">
+      <c r="C51" s="325" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="304" t="s">
+      <c r="D51" s="326" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="304"/>
-      <c r="F51" s="304"/>
-      <c r="G51" s="304"/>
+      <c r="E51" s="326"/>
+      <c r="F51" s="326"/>
+      <c r="G51" s="326"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="302"/>
-      <c r="C52" s="302"/>
-      <c r="D52" s="304"/>
-      <c r="E52" s="304"/>
-      <c r="F52" s="304"/>
-      <c r="G52" s="304"/>
+      <c r="B52" s="324"/>
+      <c r="C52" s="324"/>
+      <c r="D52" s="326"/>
+      <c r="E52" s="326"/>
+      <c r="F52" s="326"/>
+      <c r="G52" s="326"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="302"/>
-      <c r="C53" s="302"/>
-      <c r="D53" s="304"/>
-      <c r="E53" s="304"/>
-      <c r="F53" s="304"/>
-      <c r="G53" s="304"/>
+      <c r="B53" s="324"/>
+      <c r="C53" s="324"/>
+      <c r="D53" s="326"/>
+      <c r="E53" s="326"/>
+      <c r="F53" s="326"/>
+      <c r="G53" s="326"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1">
-      <c r="B54" s="302"/>
-      <c r="C54" s="302"/>
-      <c r="D54" s="304"/>
-      <c r="E54" s="304"/>
-      <c r="F54" s="304"/>
-      <c r="G54" s="304"/>
+      <c r="B54" s="324"/>
+      <c r="C54" s="324"/>
+      <c r="D54" s="326"/>
+      <c r="E54" s="326"/>
+      <c r="F54" s="326"/>
+      <c r="G54" s="326"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -6119,6 +6118,33 @@
     <row r="251" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B11:G12"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="C51:C54"/>
     <mergeCell ref="D51:G54"/>
@@ -6128,33 +6154,6 @@
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="C47:C50"/>
     <mergeCell ref="D47:G50"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B11:G12"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -6166,9 +6165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC386"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C32"/>
+    <sheetView zoomScale="59" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
@@ -6190,10 +6189,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="356" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="308"/>
+      <c r="B1" s="356"/>
       <c r="C1" s="199" t="s">
         <v>170</v>
       </c>
@@ -6213,10 +6212,10 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="37"/>
-      <c r="L1" s="309" t="s">
+      <c r="L1" s="357" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="309"/>
+      <c r="M1" s="357"/>
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
       <c r="P1" s="38"/>
@@ -6235,10 +6234,10 @@
       <c r="AC1" s="38"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="356" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="308"/>
+      <c r="B2" s="356"/>
       <c r="C2" s="39" t="s">
         <v>172</v>
       </c>
@@ -6283,10 +6282,10 @@
       <c r="AC2" s="38"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="356" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="308"/>
+      <c r="B3" s="356"/>
       <c r="C3" s="39"/>
       <c r="D3" s="40" t="s">
         <v>55</v>
@@ -6327,10 +6326,10 @@
       <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A4" s="308" t="s">
+      <c r="A4" s="356" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="308"/>
+      <c r="B4" s="356"/>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
         <v>58</v>
@@ -6369,15 +6368,15 @@
       <c r="AC4" s="38"/>
     </row>
     <row r="5" spans="1:29" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A5" s="306" t="s">
+      <c r="A5" s="354" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="306"/>
-      <c r="C5" s="307"/>
-      <c r="D5" s="307"/>
-      <c r="E5" s="307"/>
-      <c r="F5" s="307"/>
-      <c r="G5" s="307"/>
+      <c r="B5" s="354"/>
+      <c r="C5" s="355"/>
+      <c r="D5" s="355"/>
+      <c r="E5" s="355"/>
+      <c r="F5" s="355"/>
+      <c r="G5" s="355"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
@@ -6579,13 +6578,13 @@
       <c r="A10" s="215">
         <v>2</v>
       </c>
-      <c r="B10" s="338" t="s">
+      <c r="B10" s="349" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="339" t="s">
+      <c r="C10" s="345" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="310" t="s">
+      <c r="D10" s="346" t="s">
         <v>178</v>
       </c>
       <c r="E10" s="211" t="s">
@@ -6630,9 +6629,9 @@
       <c r="A11" s="215">
         <v>3</v>
       </c>
-      <c r="B11" s="338"/>
-      <c r="C11" s="339"/>
-      <c r="D11" s="311"/>
+      <c r="B11" s="349"/>
+      <c r="C11" s="345"/>
+      <c r="D11" s="347"/>
       <c r="E11" s="211" t="s">
         <v>179</v>
       </c>
@@ -6675,9 +6674,9 @@
       <c r="A12" s="215">
         <v>4</v>
       </c>
-      <c r="B12" s="338"/>
-      <c r="C12" s="339"/>
-      <c r="D12" s="311"/>
+      <c r="B12" s="349"/>
+      <c r="C12" s="345"/>
+      <c r="D12" s="347"/>
       <c r="E12" s="211" t="s">
         <v>114</v>
       </c>
@@ -6720,9 +6719,9 @@
       <c r="A13" s="215">
         <v>5</v>
       </c>
-      <c r="B13" s="338"/>
-      <c r="C13" s="339"/>
-      <c r="D13" s="311"/>
+      <c r="B13" s="349"/>
+      <c r="C13" s="345"/>
+      <c r="D13" s="347"/>
       <c r="E13" s="211" t="s">
         <v>183</v>
       </c>
@@ -6767,9 +6766,9 @@
       <c r="A14" s="215">
         <v>6</v>
       </c>
-      <c r="B14" s="338"/>
-      <c r="C14" s="339"/>
-      <c r="D14" s="311"/>
+      <c r="B14" s="349"/>
+      <c r="C14" s="345"/>
+      <c r="D14" s="347"/>
       <c r="E14" s="211" t="s">
         <v>187</v>
       </c>
@@ -6812,9 +6811,9 @@
       <c r="A15" s="215">
         <v>7</v>
       </c>
-      <c r="B15" s="338"/>
-      <c r="C15" s="339"/>
-      <c r="D15" s="311"/>
+      <c r="B15" s="349"/>
+      <c r="C15" s="345"/>
+      <c r="D15" s="347"/>
       <c r="E15" s="211" t="s">
         <v>190</v>
       </c>
@@ -6857,9 +6856,9 @@
       <c r="A16" s="215">
         <v>8</v>
       </c>
-      <c r="B16" s="338"/>
-      <c r="C16" s="339"/>
-      <c r="D16" s="311"/>
+      <c r="B16" s="349"/>
+      <c r="C16" s="345"/>
+      <c r="D16" s="347"/>
       <c r="E16" s="211" t="s">
         <v>195</v>
       </c>
@@ -6902,9 +6901,9 @@
       <c r="A17" s="215">
         <v>9</v>
       </c>
-      <c r="B17" s="338"/>
-      <c r="C17" s="339"/>
-      <c r="D17" s="311"/>
+      <c r="B17" s="349"/>
+      <c r="C17" s="345"/>
+      <c r="D17" s="347"/>
       <c r="E17" s="211" t="s">
         <v>198</v>
       </c>
@@ -6949,9 +6948,9 @@
       <c r="A18" s="216">
         <v>10</v>
       </c>
-      <c r="B18" s="338"/>
-      <c r="C18" s="339"/>
-      <c r="D18" s="311"/>
+      <c r="B18" s="349"/>
+      <c r="C18" s="345"/>
+      <c r="D18" s="347"/>
       <c r="E18" s="240" t="s">
         <v>202</v>
       </c>
@@ -6994,9 +6993,9 @@
       <c r="A19" s="216">
         <v>11</v>
       </c>
-      <c r="B19" s="338"/>
-      <c r="C19" s="339"/>
-      <c r="D19" s="311"/>
+      <c r="B19" s="349"/>
+      <c r="C19" s="345"/>
+      <c r="D19" s="347"/>
       <c r="E19" s="276" t="s">
         <v>206</v>
       </c>
@@ -7039,9 +7038,9 @@
       <c r="A20" s="216">
         <v>12</v>
       </c>
-      <c r="B20" s="338"/>
-      <c r="C20" s="339"/>
-      <c r="D20" s="311"/>
+      <c r="B20" s="349"/>
+      <c r="C20" s="345"/>
+      <c r="D20" s="347"/>
       <c r="E20" s="243" t="s">
         <v>210</v>
       </c>
@@ -7084,9 +7083,9 @@
       <c r="A21" s="216">
         <v>13</v>
       </c>
-      <c r="B21" s="338"/>
-      <c r="C21" s="339"/>
-      <c r="D21" s="311"/>
+      <c r="B21" s="349"/>
+      <c r="C21" s="345"/>
+      <c r="D21" s="347"/>
       <c r="E21" s="245" t="s">
         <v>214</v>
       </c>
@@ -7129,9 +7128,9 @@
       <c r="A22" s="216">
         <v>14</v>
       </c>
-      <c r="B22" s="338"/>
-      <c r="C22" s="339"/>
-      <c r="D22" s="311"/>
+      <c r="B22" s="349"/>
+      <c r="C22" s="345"/>
+      <c r="D22" s="347"/>
       <c r="E22" s="245" t="s">
         <v>218</v>
       </c>
@@ -7174,9 +7173,9 @@
       <c r="A23" s="216">
         <v>15</v>
       </c>
-      <c r="B23" s="338"/>
-      <c r="C23" s="339"/>
-      <c r="D23" s="311"/>
+      <c r="B23" s="349"/>
+      <c r="C23" s="345"/>
+      <c r="D23" s="347"/>
       <c r="E23" s="245" t="s">
         <v>219</v>
       </c>
@@ -7219,9 +7218,9 @@
       <c r="A24" s="216">
         <v>16</v>
       </c>
-      <c r="B24" s="338"/>
-      <c r="C24" s="339"/>
-      <c r="D24" s="311"/>
+      <c r="B24" s="349"/>
+      <c r="C24" s="345"/>
+      <c r="D24" s="347"/>
       <c r="E24" s="243" t="s">
         <v>226</v>
       </c>
@@ -7264,9 +7263,9 @@
       <c r="A25" s="216">
         <v>17</v>
       </c>
-      <c r="B25" s="338"/>
-      <c r="C25" s="339"/>
-      <c r="D25" s="311"/>
+      <c r="B25" s="349"/>
+      <c r="C25" s="345"/>
+      <c r="D25" s="347"/>
       <c r="E25" s="243" t="s">
         <v>230</v>
       </c>
@@ -7311,9 +7310,9 @@
       <c r="A26" s="216">
         <v>18</v>
       </c>
-      <c r="B26" s="338"/>
-      <c r="C26" s="339"/>
-      <c r="D26" s="311"/>
+      <c r="B26" s="349"/>
+      <c r="C26" s="345"/>
+      <c r="D26" s="347"/>
       <c r="E26" s="243" t="s">
         <v>233</v>
       </c>
@@ -7358,9 +7357,9 @@
       <c r="A27" s="216">
         <v>19</v>
       </c>
-      <c r="B27" s="338"/>
-      <c r="C27" s="339"/>
-      <c r="D27" s="311"/>
+      <c r="B27" s="349"/>
+      <c r="C27" s="345"/>
+      <c r="D27" s="347"/>
       <c r="E27" s="243" t="s">
         <v>236</v>
       </c>
@@ -7405,9 +7404,9 @@
       <c r="A28" s="216">
         <v>20</v>
       </c>
-      <c r="B28" s="338"/>
-      <c r="C28" s="339"/>
-      <c r="D28" s="311"/>
+      <c r="B28" s="349"/>
+      <c r="C28" s="345"/>
+      <c r="D28" s="347"/>
       <c r="E28" s="243" t="s">
         <v>237</v>
       </c>
@@ -7452,9 +7451,9 @@
       <c r="A29" s="216">
         <v>21</v>
       </c>
-      <c r="B29" s="338"/>
-      <c r="C29" s="339"/>
-      <c r="D29" s="311"/>
+      <c r="B29" s="349"/>
+      <c r="C29" s="345"/>
+      <c r="D29" s="347"/>
       <c r="E29" s="243" t="s">
         <v>238</v>
       </c>
@@ -7499,9 +7498,9 @@
       <c r="A30" s="216">
         <v>22</v>
       </c>
-      <c r="B30" s="338"/>
-      <c r="C30" s="339"/>
-      <c r="D30" s="311"/>
+      <c r="B30" s="349"/>
+      <c r="C30" s="345"/>
+      <c r="D30" s="347"/>
       <c r="E30" s="245" t="s">
         <v>255</v>
       </c>
@@ -7544,9 +7543,9 @@
       <c r="A31" s="216">
         <v>23</v>
       </c>
-      <c r="B31" s="338"/>
-      <c r="C31" s="339"/>
-      <c r="D31" s="311"/>
+      <c r="B31" s="349"/>
+      <c r="C31" s="345"/>
+      <c r="D31" s="347"/>
       <c r="E31" s="245" t="s">
         <v>259</v>
       </c>
@@ -7585,112 +7584,112 @@
       <c r="AB31" s="82"/>
       <c r="AC31" s="82"/>
     </row>
-    <row r="32" spans="1:29" s="349" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="A32" s="340">
+    <row r="32" spans="1:29" s="307" customFormat="1" ht="33" customHeight="1" thickBot="1">
+      <c r="A32" s="298">
         <v>24</v>
       </c>
-      <c r="B32" s="338"/>
-      <c r="C32" s="339"/>
-      <c r="D32" s="312"/>
-      <c r="E32" s="341" t="s">
+      <c r="B32" s="349"/>
+      <c r="C32" s="345"/>
+      <c r="D32" s="348"/>
+      <c r="E32" s="299" t="s">
         <v>262</v>
       </c>
-      <c r="F32" s="342" t="s">
+      <c r="F32" s="300" t="s">
         <v>263</v>
       </c>
       <c r="G32" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="343" t="s">
+      <c r="H32" s="301" t="s">
         <v>264</v>
       </c>
-      <c r="I32" s="344" t="s">
+      <c r="I32" s="302" t="s">
         <v>265</v>
       </c>
       <c r="J32" s="150"/>
       <c r="K32" s="150"/>
-      <c r="L32" s="345" t="s">
+      <c r="L32" s="303" t="s">
         <v>111</v>
       </c>
-      <c r="M32" s="346"/>
-      <c r="N32" s="347"/>
-      <c r="O32" s="347"/>
-      <c r="P32" s="347"/>
-      <c r="Q32" s="347"/>
-      <c r="R32" s="347"/>
-      <c r="S32" s="347"/>
-      <c r="T32" s="347"/>
-      <c r="U32" s="348"/>
-      <c r="V32" s="348"/>
-      <c r="W32" s="348"/>
-      <c r="X32" s="348"/>
-      <c r="Y32" s="348"/>
-      <c r="Z32" s="348"/>
-      <c r="AA32" s="348"/>
-      <c r="AB32" s="348"/>
-      <c r="AC32" s="348"/>
-    </row>
-    <row r="33" spans="1:29" s="337" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A33" s="332"/>
-      <c r="B33" s="359"/>
-      <c r="C33" s="359"/>
-      <c r="D33" s="359"/>
-      <c r="E33" s="360"/>
-      <c r="F33" s="361"/>
-      <c r="G33" s="361"/>
-      <c r="H33" s="362"/>
-      <c r="I33" s="363"/>
-      <c r="J33" s="361"/>
-      <c r="K33" s="361"/>
-      <c r="L33" s="333"/>
-      <c r="M33" s="334"/>
-      <c r="N33" s="335"/>
-      <c r="O33" s="335"/>
-      <c r="P33" s="335"/>
-      <c r="Q33" s="335"/>
-      <c r="R33" s="335"/>
-      <c r="S33" s="335"/>
-      <c r="T33" s="335"/>
-      <c r="U33" s="336"/>
-      <c r="V33" s="336"/>
-      <c r="W33" s="336"/>
-      <c r="X33" s="336"/>
-      <c r="Y33" s="336"/>
-      <c r="Z33" s="336"/>
-      <c r="AA33" s="336"/>
-      <c r="AB33" s="336"/>
-      <c r="AC33" s="336"/>
-    </row>
-    <row r="34" spans="1:29" s="358" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A34" s="350"/>
+      <c r="M32" s="304"/>
+      <c r="N32" s="305"/>
+      <c r="O32" s="305"/>
+      <c r="P32" s="305"/>
+      <c r="Q32" s="305"/>
+      <c r="R32" s="305"/>
+      <c r="S32" s="305"/>
+      <c r="T32" s="305"/>
+      <c r="U32" s="306"/>
+      <c r="V32" s="306"/>
+      <c r="W32" s="306"/>
+      <c r="X32" s="306"/>
+      <c r="Y32" s="306"/>
+      <c r="Z32" s="306"/>
+      <c r="AA32" s="306"/>
+      <c r="AB32" s="306"/>
+      <c r="AC32" s="306"/>
+    </row>
+    <row r="33" spans="1:29" s="297" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A33" s="292"/>
+      <c r="B33" s="317"/>
+      <c r="C33" s="317"/>
+      <c r="D33" s="317"/>
+      <c r="E33" s="318"/>
+      <c r="F33" s="319"/>
+      <c r="G33" s="319"/>
+      <c r="H33" s="320"/>
+      <c r="I33" s="321"/>
+      <c r="J33" s="319"/>
+      <c r="K33" s="319"/>
+      <c r="L33" s="293"/>
+      <c r="M33" s="294"/>
+      <c r="N33" s="295"/>
+      <c r="O33" s="295"/>
+      <c r="P33" s="295"/>
+      <c r="Q33" s="295"/>
+      <c r="R33" s="295"/>
+      <c r="S33" s="295"/>
+      <c r="T33" s="295"/>
+      <c r="U33" s="296"/>
+      <c r="V33" s="296"/>
+      <c r="W33" s="296"/>
+      <c r="X33" s="296"/>
+      <c r="Y33" s="296"/>
+      <c r="Z33" s="296"/>
+      <c r="AA33" s="296"/>
+      <c r="AB33" s="296"/>
+      <c r="AC33" s="296"/>
+    </row>
+    <row r="34" spans="1:29" s="316" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A34" s="308"/>
       <c r="B34" s="285"/>
       <c r="C34" s="286"/>
       <c r="D34" s="286"/>
-      <c r="E34" s="351"/>
+      <c r="E34" s="309"/>
       <c r="F34" s="94"/>
       <c r="G34" s="94"/>
-      <c r="H34" s="352"/>
-      <c r="I34" s="353"/>
+      <c r="H34" s="310"/>
+      <c r="I34" s="311"/>
       <c r="J34" s="94"/>
       <c r="K34" s="94"/>
-      <c r="L34" s="354"/>
-      <c r="M34" s="355"/>
-      <c r="N34" s="356"/>
-      <c r="O34" s="356"/>
-      <c r="P34" s="356"/>
-      <c r="Q34" s="356"/>
-      <c r="R34" s="356"/>
-      <c r="S34" s="356"/>
-      <c r="T34" s="356"/>
-      <c r="U34" s="357"/>
-      <c r="V34" s="357"/>
-      <c r="W34" s="357"/>
-      <c r="X34" s="357"/>
-      <c r="Y34" s="357"/>
-      <c r="Z34" s="357"/>
-      <c r="AA34" s="357"/>
-      <c r="AB34" s="357"/>
-      <c r="AC34" s="357"/>
+      <c r="L34" s="312"/>
+      <c r="M34" s="313"/>
+      <c r="N34" s="314"/>
+      <c r="O34" s="314"/>
+      <c r="P34" s="314"/>
+      <c r="Q34" s="314"/>
+      <c r="R34" s="314"/>
+      <c r="S34" s="314"/>
+      <c r="T34" s="314"/>
+      <c r="U34" s="315"/>
+      <c r="V34" s="315"/>
+      <c r="W34" s="315"/>
+      <c r="X34" s="315"/>
+      <c r="Y34" s="315"/>
+      <c r="Z34" s="315"/>
+      <c r="AA34" s="315"/>
+      <c r="AB34" s="315"/>
+      <c r="AC34" s="315"/>
     </row>
     <row r="35" spans="1:29" s="83" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
       <c r="A35" s="217"/>
@@ -12014,7 +12013,7 @@
       <c r="J174" s="208"/>
       <c r="K174" s="208"/>
       <c r="L174" s="145"/>
-      <c r="M174" s="313"/>
+      <c r="M174" s="350"/>
       <c r="N174" s="102"/>
       <c r="O174" s="102"/>
       <c r="P174" s="102"/>
@@ -12045,7 +12044,7 @@
       <c r="J175" s="208"/>
       <c r="K175" s="208"/>
       <c r="L175" s="145"/>
-      <c r="M175" s="314"/>
+      <c r="M175" s="351"/>
       <c r="N175" s="102"/>
       <c r="O175" s="102"/>
       <c r="P175" s="102"/>
@@ -12076,7 +12075,7 @@
       <c r="J176" s="208"/>
       <c r="K176" s="208"/>
       <c r="L176" s="145"/>
-      <c r="M176" s="314"/>
+      <c r="M176" s="351"/>
       <c r="N176" s="102"/>
       <c r="O176" s="102"/>
       <c r="P176" s="102"/>
@@ -12107,7 +12106,7 @@
       <c r="J177" s="208"/>
       <c r="K177" s="208"/>
       <c r="L177" s="145"/>
-      <c r="M177" s="314"/>
+      <c r="M177" s="351"/>
       <c r="N177" s="102"/>
       <c r="O177" s="102"/>
       <c r="P177" s="102"/>
@@ -12138,7 +12137,7 @@
       <c r="J178" s="208"/>
       <c r="K178" s="208"/>
       <c r="L178" s="145"/>
-      <c r="M178" s="314"/>
+      <c r="M178" s="351"/>
       <c r="N178" s="102"/>
       <c r="O178" s="102"/>
       <c r="P178" s="102"/>
@@ -12169,7 +12168,7 @@
       <c r="J179" s="208"/>
       <c r="K179" s="208"/>
       <c r="L179" s="145"/>
-      <c r="M179" s="314"/>
+      <c r="M179" s="351"/>
       <c r="N179" s="102"/>
       <c r="O179" s="102"/>
       <c r="P179" s="102"/>
@@ -12200,7 +12199,7 @@
       <c r="J180" s="208"/>
       <c r="K180" s="208"/>
       <c r="L180" s="145"/>
-      <c r="M180" s="314"/>
+      <c r="M180" s="351"/>
       <c r="N180" s="102"/>
       <c r="O180" s="102"/>
       <c r="P180" s="102"/>
@@ -12231,7 +12230,7 @@
       <c r="J181" s="208"/>
       <c r="K181" s="208"/>
       <c r="L181" s="145"/>
-      <c r="M181" s="315"/>
+      <c r="M181" s="352"/>
       <c r="N181" s="102"/>
       <c r="O181" s="102"/>
       <c r="P181" s="102"/>
@@ -12379,7 +12378,7 @@
       <c r="C186" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="D186" s="316"/>
+      <c r="D186" s="353"/>
       <c r="E186" s="111"/>
       <c r="F186" s="107"/>
       <c r="G186" s="119"/>
@@ -12410,7 +12409,7 @@
       <c r="A187" s="126"/>
       <c r="B187" s="125"/>
       <c r="C187" s="130"/>
-      <c r="D187" s="316"/>
+      <c r="D187" s="353"/>
       <c r="E187" s="111"/>
       <c r="F187" s="107"/>
       <c r="G187" s="119"/>
@@ -12441,7 +12440,7 @@
       <c r="A188" s="126"/>
       <c r="B188" s="125"/>
       <c r="C188" s="130"/>
-      <c r="D188" s="316"/>
+      <c r="D188" s="353"/>
       <c r="E188" s="111"/>
       <c r="F188" s="107"/>
       <c r="G188" s="119"/>
@@ -12472,7 +12471,7 @@
       <c r="A189" s="126"/>
       <c r="B189" s="125"/>
       <c r="C189" s="125"/>
-      <c r="D189" s="316"/>
+      <c r="D189" s="353"/>
       <c r="E189" s="115"/>
       <c r="F189" s="107"/>
       <c r="G189" s="119"/>
@@ -12503,7 +12502,7 @@
       <c r="A190" s="126"/>
       <c r="B190" s="129"/>
       <c r="C190" s="125"/>
-      <c r="D190" s="316"/>
+      <c r="D190" s="353"/>
       <c r="E190" s="115"/>
       <c r="F190" s="107"/>
       <c r="G190" s="119"/>
@@ -12534,7 +12533,7 @@
       <c r="A191" s="126"/>
       <c r="B191" s="129"/>
       <c r="C191" s="125"/>
-      <c r="D191" s="316"/>
+      <c r="D191" s="353"/>
       <c r="E191" s="115"/>
       <c r="F191" s="107"/>
       <c r="G191" s="119"/>
@@ -12565,7 +12564,7 @@
       <c r="A192" s="126"/>
       <c r="B192" s="129"/>
       <c r="C192" s="125"/>
-      <c r="D192" s="316"/>
+      <c r="D192" s="353"/>
       <c r="E192" s="111"/>
       <c r="F192" s="107"/>
       <c r="G192" s="119"/>
@@ -12596,7 +12595,7 @@
       <c r="A193" s="126"/>
       <c r="B193" s="129"/>
       <c r="C193" s="125"/>
-      <c r="D193" s="316"/>
+      <c r="D193" s="353"/>
       <c r="E193" s="111"/>
       <c r="F193" s="107"/>
       <c r="G193" s="119"/>
@@ -12627,7 +12626,7 @@
       <c r="A194" s="126"/>
       <c r="B194" s="129"/>
       <c r="C194" s="129"/>
-      <c r="D194" s="316"/>
+      <c r="D194" s="353"/>
       <c r="E194" s="111"/>
       <c r="F194" s="107"/>
       <c r="G194" s="119"/>
@@ -13967,8 +13966,8 @@
       <c r="H237" s="150"/>
       <c r="I237" s="150"/>
       <c r="J237" s="150"/>
-      <c r="K237" s="317"/>
-      <c r="L237" s="318"/>
+      <c r="K237" s="342"/>
+      <c r="L237" s="343"/>
       <c r="M237" s="145"/>
       <c r="N237" s="102"/>
       <c r="O237" s="102"/>
@@ -13998,8 +13997,8 @@
       <c r="H238" s="151"/>
       <c r="I238" s="151"/>
       <c r="J238" s="151"/>
-      <c r="K238" s="317"/>
-      <c r="L238" s="318"/>
+      <c r="K238" s="342"/>
+      <c r="L238" s="343"/>
       <c r="M238" s="145"/>
       <c r="N238" s="102"/>
       <c r="O238" s="102"/>
@@ -14029,8 +14028,8 @@
       <c r="H239" s="94"/>
       <c r="I239" s="94"/>
       <c r="J239" s="94"/>
-      <c r="K239" s="317"/>
-      <c r="L239" s="318"/>
+      <c r="K239" s="342"/>
+      <c r="L239" s="343"/>
       <c r="M239" s="145"/>
       <c r="N239" s="102"/>
       <c r="O239" s="102"/>
@@ -14238,9 +14237,9 @@
     <row r="246" spans="1:29" ht="15.75" customHeight="1">
       <c r="A246" s="126"/>
       <c r="B246" s="137"/>
-      <c r="C246" s="319"/>
+      <c r="C246" s="339"/>
       <c r="D246" s="125"/>
-      <c r="E246" s="320"/>
+      <c r="E246" s="344"/>
       <c r="F246" s="104"/>
       <c r="G246" s="104"/>
       <c r="H246" s="104"/>
@@ -14269,9 +14268,9 @@
     <row r="247" spans="1:29" ht="15.75" customHeight="1">
       <c r="A247" s="126"/>
       <c r="B247" s="137"/>
-      <c r="C247" s="319"/>
+      <c r="C247" s="339"/>
       <c r="D247" s="125"/>
-      <c r="E247" s="320"/>
+      <c r="E247" s="344"/>
       <c r="F247" s="104"/>
       <c r="G247" s="104"/>
       <c r="H247" s="104"/>
@@ -14300,9 +14299,9 @@
     <row r="248" spans="1:29" ht="15.75" customHeight="1">
       <c r="A248" s="126"/>
       <c r="B248" s="137"/>
-      <c r="C248" s="319"/>
+      <c r="C248" s="339"/>
       <c r="D248" s="125"/>
-      <c r="E248" s="320"/>
+      <c r="E248" s="344"/>
       <c r="F248" s="104"/>
       <c r="G248" s="104"/>
       <c r="H248" s="104"/>
@@ -14331,7 +14330,7 @@
     <row r="249" spans="1:29" ht="15.75" customHeight="1">
       <c r="A249" s="126"/>
       <c r="B249" s="137"/>
-      <c r="C249" s="319"/>
+      <c r="C249" s="339"/>
       <c r="D249" s="125"/>
       <c r="E249" s="108"/>
       <c r="F249" s="104"/>
@@ -14362,7 +14361,7 @@
     <row r="250" spans="1:29" ht="15.75" customHeight="1">
       <c r="A250" s="126"/>
       <c r="B250" s="137"/>
-      <c r="C250" s="319"/>
+      <c r="C250" s="339"/>
       <c r="D250" s="125"/>
       <c r="E250" s="108"/>
       <c r="F250" s="104"/>
@@ -14393,7 +14392,7 @@
     <row r="251" spans="1:29" ht="15.75" customHeight="1">
       <c r="A251" s="126"/>
       <c r="B251" s="137"/>
-      <c r="C251" s="319"/>
+      <c r="C251" s="339"/>
       <c r="D251" s="125"/>
       <c r="E251" s="108"/>
       <c r="F251" s="148"/>
@@ -14424,7 +14423,7 @@
     <row r="252" spans="1:29" ht="15.75" customHeight="1">
       <c r="A252" s="126"/>
       <c r="B252" s="137"/>
-      <c r="C252" s="319"/>
+      <c r="C252" s="339"/>
       <c r="D252" s="125"/>
       <c r="E252" s="108"/>
       <c r="F252" s="104"/>
@@ -14455,7 +14454,7 @@
     <row r="253" spans="1:29" ht="15.75" customHeight="1">
       <c r="A253" s="126"/>
       <c r="B253" s="137"/>
-      <c r="C253" s="321"/>
+      <c r="C253" s="337"/>
       <c r="D253" s="135"/>
       <c r="E253" s="108"/>
       <c r="F253" s="148"/>
@@ -14486,7 +14485,7 @@
     <row r="254" spans="1:29" ht="15.75" customHeight="1">
       <c r="A254" s="126"/>
       <c r="B254" s="137"/>
-      <c r="C254" s="321"/>
+      <c r="C254" s="337"/>
       <c r="D254" s="156"/>
       <c r="E254" s="108"/>
       <c r="F254" s="148"/>
@@ -14548,7 +14547,7 @@
     <row r="256" spans="1:29" ht="30" customHeight="1">
       <c r="A256" s="126"/>
       <c r="B256" s="137"/>
-      <c r="C256" s="321"/>
+      <c r="C256" s="337"/>
       <c r="D256" s="135"/>
       <c r="E256" s="108"/>
       <c r="F256" s="104"/>
@@ -14579,7 +14578,7 @@
     <row r="257" spans="1:29" ht="15.75" customHeight="1">
       <c r="A257" s="126"/>
       <c r="B257" s="137"/>
-      <c r="C257" s="321"/>
+      <c r="C257" s="337"/>
       <c r="D257" s="136"/>
       <c r="E257" s="108"/>
       <c r="F257" s="104"/>
@@ -14610,7 +14609,7 @@
     <row r="258" spans="1:29" ht="15.75" customHeight="1">
       <c r="A258" s="126"/>
       <c r="B258" s="137"/>
-      <c r="C258" s="321"/>
+      <c r="C258" s="337"/>
       <c r="D258" s="136"/>
       <c r="E258" s="108"/>
       <c r="F258" s="104"/>
@@ -14641,7 +14640,7 @@
     <row r="259" spans="1:29" ht="15.75" customHeight="1">
       <c r="A259" s="126"/>
       <c r="B259" s="137"/>
-      <c r="C259" s="321"/>
+      <c r="C259" s="337"/>
       <c r="D259" s="136"/>
       <c r="E259" s="108"/>
       <c r="F259" s="148"/>
@@ -14672,7 +14671,7 @@
     <row r="260" spans="1:29" ht="15.75" customHeight="1">
       <c r="A260" s="126"/>
       <c r="B260" s="137"/>
-      <c r="C260" s="321"/>
+      <c r="C260" s="337"/>
       <c r="D260" s="136"/>
       <c r="E260" s="158"/>
       <c r="F260" s="104"/>
@@ -15052,7 +15051,7 @@
       <c r="H272" s="148"/>
       <c r="I272" s="148"/>
       <c r="J272" s="148"/>
-      <c r="K272" s="322"/>
+      <c r="K272" s="341"/>
       <c r="L272" s="101"/>
       <c r="M272" s="117"/>
       <c r="N272" s="102"/>
@@ -15083,7 +15082,7 @@
       <c r="H273" s="148"/>
       <c r="I273" s="148"/>
       <c r="J273" s="148"/>
-      <c r="K273" s="322"/>
+      <c r="K273" s="341"/>
       <c r="L273" s="101"/>
       <c r="M273" s="117"/>
       <c r="N273" s="102"/>
@@ -15168,7 +15167,7 @@
     <row r="276" spans="1:29" ht="15.75" customHeight="1">
       <c r="A276" s="126"/>
       <c r="B276" s="137"/>
-      <c r="C276" s="321"/>
+      <c r="C276" s="337"/>
       <c r="D276" s="135"/>
       <c r="E276" s="108"/>
       <c r="F276" s="148"/>
@@ -15176,7 +15175,7 @@
       <c r="H276" s="148"/>
       <c r="I276" s="148"/>
       <c r="J276" s="148"/>
-      <c r="K276" s="317"/>
+      <c r="K276" s="342"/>
       <c r="L276" s="101"/>
       <c r="M276" s="117"/>
       <c r="N276" s="102"/>
@@ -15199,7 +15198,7 @@
     <row r="277" spans="1:29" ht="15.75" customHeight="1">
       <c r="A277" s="126"/>
       <c r="B277" s="137"/>
-      <c r="C277" s="321"/>
+      <c r="C277" s="337"/>
       <c r="D277" s="156"/>
       <c r="E277" s="108"/>
       <c r="F277" s="148"/>
@@ -15207,7 +15206,7 @@
       <c r="H277" s="148"/>
       <c r="I277" s="148"/>
       <c r="J277" s="148"/>
-      <c r="K277" s="317"/>
+      <c r="K277" s="342"/>
       <c r="L277" s="101"/>
       <c r="M277" s="117"/>
       <c r="N277" s="102"/>
@@ -15230,7 +15229,7 @@
     <row r="278" spans="1:29" ht="15.75" customHeight="1">
       <c r="A278" s="126"/>
       <c r="B278" s="137"/>
-      <c r="C278" s="319"/>
+      <c r="C278" s="339"/>
       <c r="D278" s="149"/>
       <c r="E278" s="115"/>
       <c r="F278" s="107"/>
@@ -15261,7 +15260,7 @@
     <row r="279" spans="1:29" ht="15.75" customHeight="1">
       <c r="A279" s="126"/>
       <c r="B279" s="137"/>
-      <c r="C279" s="319"/>
+      <c r="C279" s="339"/>
       <c r="D279" s="113"/>
       <c r="E279" s="115"/>
       <c r="F279" s="107"/>
@@ -15323,7 +15322,7 @@
     <row r="281" spans="1:29" ht="15.75" customHeight="1">
       <c r="A281" s="126"/>
       <c r="B281" s="137"/>
-      <c r="C281" s="321"/>
+      <c r="C281" s="337"/>
       <c r="D281" s="135"/>
       <c r="E281" s="115"/>
       <c r="F281" s="107"/>
@@ -15354,7 +15353,7 @@
     <row r="282" spans="1:29" ht="15.75" customHeight="1">
       <c r="A282" s="126"/>
       <c r="B282" s="137"/>
-      <c r="C282" s="321"/>
+      <c r="C282" s="337"/>
       <c r="D282" s="136"/>
       <c r="E282" s="115"/>
       <c r="F282" s="107"/>
@@ -15385,7 +15384,7 @@
     <row r="283" spans="1:29" ht="15.75" customHeight="1">
       <c r="A283" s="126"/>
       <c r="B283" s="137"/>
-      <c r="C283" s="321"/>
+      <c r="C283" s="337"/>
       <c r="D283" s="156"/>
       <c r="E283" s="115"/>
       <c r="F283" s="107"/>
@@ -15570,10 +15569,10 @@
     </row>
     <row r="289" spans="1:29" ht="15.75" customHeight="1">
       <c r="A289" s="132"/>
-      <c r="B289" s="323"/>
-      <c r="C289" s="319"/>
+      <c r="B289" s="338"/>
+      <c r="C289" s="339"/>
       <c r="D289" s="125"/>
-      <c r="E289" s="319"/>
+      <c r="E289" s="339"/>
       <c r="F289" s="104"/>
       <c r="G289" s="104"/>
       <c r="H289" s="104"/>
@@ -15601,10 +15600,10 @@
     </row>
     <row r="290" spans="1:29" ht="15.75" customHeight="1">
       <c r="A290" s="132"/>
-      <c r="B290" s="323"/>
-      <c r="C290" s="323"/>
+      <c r="B290" s="338"/>
+      <c r="C290" s="338"/>
       <c r="D290" s="125"/>
-      <c r="E290" s="319"/>
+      <c r="E290" s="339"/>
       <c r="F290" s="104"/>
       <c r="G290" s="104"/>
       <c r="H290" s="104"/>
@@ -15632,10 +15631,10 @@
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1">
       <c r="A291" s="132"/>
-      <c r="B291" s="323"/>
-      <c r="C291" s="323"/>
+      <c r="B291" s="338"/>
+      <c r="C291" s="338"/>
       <c r="D291" s="125"/>
-      <c r="E291" s="319"/>
+      <c r="E291" s="339"/>
       <c r="F291" s="104"/>
       <c r="G291" s="104"/>
       <c r="H291" s="104"/>
@@ -15663,10 +15662,10 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1">
       <c r="A292" s="132"/>
-      <c r="B292" s="323"/>
-      <c r="C292" s="323"/>
+      <c r="B292" s="338"/>
+      <c r="C292" s="338"/>
       <c r="D292" s="125"/>
-      <c r="E292" s="319"/>
+      <c r="E292" s="339"/>
       <c r="F292" s="104"/>
       <c r="G292" s="104"/>
       <c r="H292" s="104"/>
@@ -15694,10 +15693,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1">
       <c r="A293" s="132"/>
-      <c r="B293" s="323"/>
-      <c r="C293" s="323"/>
+      <c r="B293" s="338"/>
+      <c r="C293" s="338"/>
       <c r="D293" s="125"/>
-      <c r="E293" s="319"/>
+      <c r="E293" s="339"/>
       <c r="F293" s="104"/>
       <c r="G293" s="104"/>
       <c r="H293" s="104"/>
@@ -15725,10 +15724,10 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1">
       <c r="A294" s="132"/>
-      <c r="B294" s="323"/>
-      <c r="C294" s="323"/>
+      <c r="B294" s="338"/>
+      <c r="C294" s="338"/>
       <c r="D294" s="125"/>
-      <c r="E294" s="319"/>
+      <c r="E294" s="339"/>
       <c r="F294" s="148"/>
       <c r="G294" s="148"/>
       <c r="H294" s="148"/>
@@ -15756,10 +15755,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1">
       <c r="A295" s="132"/>
-      <c r="B295" s="323"/>
-      <c r="C295" s="323"/>
+      <c r="B295" s="338"/>
+      <c r="C295" s="338"/>
       <c r="D295" s="125"/>
-      <c r="E295" s="319"/>
+      <c r="E295" s="339"/>
       <c r="F295" s="104"/>
       <c r="G295" s="104"/>
       <c r="H295" s="104"/>
@@ -15787,10 +15786,10 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1">
       <c r="A296" s="132"/>
-      <c r="B296" s="323"/>
-      <c r="C296" s="323"/>
+      <c r="B296" s="338"/>
+      <c r="C296" s="338"/>
       <c r="D296" s="125"/>
-      <c r="E296" s="319"/>
+      <c r="E296" s="339"/>
       <c r="F296" s="104"/>
       <c r="G296" s="104"/>
       <c r="H296" s="104"/>
@@ -15818,8 +15817,8 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1">
       <c r="A297" s="132"/>
-      <c r="B297" s="323"/>
-      <c r="C297" s="323"/>
+      <c r="B297" s="338"/>
+      <c r="C297" s="338"/>
       <c r="D297" s="125"/>
       <c r="E297" s="129"/>
       <c r="F297" s="100"/>
@@ -15849,8 +15848,8 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1">
       <c r="A298" s="132"/>
-      <c r="B298" s="323"/>
-      <c r="C298" s="323"/>
+      <c r="B298" s="338"/>
+      <c r="C298" s="338"/>
       <c r="D298" s="125"/>
       <c r="E298" s="129"/>
       <c r="F298" s="101"/>
@@ -15880,10 +15879,10 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1">
       <c r="A299" s="132"/>
-      <c r="B299" s="323"/>
-      <c r="C299" s="323"/>
+      <c r="B299" s="338"/>
+      <c r="C299" s="338"/>
       <c r="D299" s="149"/>
-      <c r="E299" s="319"/>
+      <c r="E299" s="339"/>
       <c r="F299" s="107"/>
       <c r="G299" s="107"/>
       <c r="H299" s="107"/>
@@ -15911,10 +15910,10 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1">
       <c r="A300" s="132"/>
-      <c r="B300" s="323"/>
-      <c r="C300" s="323"/>
+      <c r="B300" s="338"/>
+      <c r="C300" s="338"/>
       <c r="D300" s="172"/>
-      <c r="E300" s="319"/>
+      <c r="E300" s="339"/>
       <c r="F300" s="101"/>
       <c r="G300" s="101"/>
       <c r="H300" s="101"/>
@@ -15942,10 +15941,10 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1">
       <c r="A301" s="132"/>
-      <c r="B301" s="323"/>
-      <c r="C301" s="323"/>
+      <c r="B301" s="338"/>
+      <c r="C301" s="338"/>
       <c r="D301" s="172"/>
-      <c r="E301" s="319"/>
+      <c r="E301" s="339"/>
       <c r="F301" s="101"/>
       <c r="G301" s="101"/>
       <c r="H301" s="101"/>
@@ -15973,10 +15972,10 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1">
       <c r="A302" s="132"/>
-      <c r="B302" s="323"/>
-      <c r="C302" s="319"/>
+      <c r="B302" s="338"/>
+      <c r="C302" s="339"/>
       <c r="D302" s="113"/>
-      <c r="E302" s="319"/>
+      <c r="E302" s="339"/>
       <c r="F302" s="101"/>
       <c r="G302" s="101"/>
       <c r="H302" s="101"/>
@@ -16004,7 +16003,7 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1">
       <c r="A303" s="132"/>
-      <c r="B303" s="323"/>
+      <c r="B303" s="338"/>
       <c r="C303" s="125"/>
       <c r="D303" s="172"/>
       <c r="E303" s="172"/>
@@ -16035,10 +16034,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1">
       <c r="A304" s="132"/>
-      <c r="B304" s="323"/>
-      <c r="C304" s="319"/>
+      <c r="B304" s="338"/>
+      <c r="C304" s="339"/>
       <c r="D304" s="149"/>
-      <c r="E304" s="324"/>
+      <c r="E304" s="340"/>
       <c r="F304" s="107"/>
       <c r="G304" s="107"/>
       <c r="H304" s="107"/>
@@ -16066,10 +16065,10 @@
     </row>
     <row r="305" spans="1:29" ht="15.75" customHeight="1">
       <c r="A305" s="132"/>
-      <c r="B305" s="323"/>
-      <c r="C305" s="323"/>
+      <c r="B305" s="338"/>
+      <c r="C305" s="338"/>
       <c r="D305" s="113"/>
-      <c r="E305" s="324"/>
+      <c r="E305" s="340"/>
       <c r="F305" s="107"/>
       <c r="G305" s="107"/>
       <c r="H305" s="107"/>
@@ -16097,10 +16096,10 @@
     </row>
     <row r="306" spans="1:29" ht="15.75" customHeight="1">
       <c r="A306" s="132"/>
-      <c r="B306" s="323"/>
-      <c r="C306" s="323"/>
+      <c r="B306" s="338"/>
+      <c r="C306" s="338"/>
       <c r="D306" s="125"/>
-      <c r="E306" s="324"/>
+      <c r="E306" s="340"/>
       <c r="F306" s="107"/>
       <c r="G306" s="107"/>
       <c r="H306" s="107"/>
@@ -16128,10 +16127,10 @@
     </row>
     <row r="307" spans="1:29" ht="15.75" customHeight="1">
       <c r="A307" s="132"/>
-      <c r="B307" s="323"/>
-      <c r="C307" s="319"/>
+      <c r="B307" s="338"/>
+      <c r="C307" s="339"/>
       <c r="D307" s="125"/>
-      <c r="E307" s="324"/>
+      <c r="E307" s="340"/>
       <c r="F307" s="107"/>
       <c r="G307" s="107"/>
       <c r="H307" s="107"/>
@@ -16159,7 +16158,7 @@
     </row>
     <row r="308" spans="1:29" ht="15.75" customHeight="1">
       <c r="A308" s="132"/>
-      <c r="B308" s="323"/>
+      <c r="B308" s="338"/>
       <c r="C308" s="129"/>
       <c r="D308" s="129"/>
       <c r="E308" s="132"/>
@@ -16190,10 +16189,10 @@
     </row>
     <row r="309" spans="1:29" ht="15.75" customHeight="1">
       <c r="A309" s="132"/>
-      <c r="B309" s="323"/>
-      <c r="C309" s="319"/>
+      <c r="B309" s="338"/>
+      <c r="C309" s="339"/>
       <c r="D309" s="149"/>
-      <c r="E309" s="319"/>
+      <c r="E309" s="339"/>
       <c r="F309" s="107"/>
       <c r="G309" s="107"/>
       <c r="H309" s="107"/>
@@ -16221,10 +16220,10 @@
     </row>
     <row r="310" spans="1:29" ht="15.75" customHeight="1">
       <c r="A310" s="132"/>
-      <c r="B310" s="323"/>
-      <c r="C310" s="323"/>
+      <c r="B310" s="338"/>
+      <c r="C310" s="338"/>
       <c r="D310" s="172"/>
-      <c r="E310" s="319"/>
+      <c r="E310" s="339"/>
       <c r="F310" s="107"/>
       <c r="G310" s="107"/>
       <c r="H310" s="107"/>
@@ -16252,10 +16251,10 @@
     </row>
     <row r="311" spans="1:29" ht="15.75" customHeight="1">
       <c r="A311" s="132"/>
-      <c r="B311" s="323"/>
-      <c r="C311" s="323"/>
+      <c r="B311" s="338"/>
+      <c r="C311" s="338"/>
       <c r="D311" s="172"/>
-      <c r="E311" s="319"/>
+      <c r="E311" s="339"/>
       <c r="F311" s="107"/>
       <c r="G311" s="107"/>
       <c r="H311" s="107"/>
@@ -16283,10 +16282,10 @@
     </row>
     <row r="312" spans="1:29" ht="15.75" customHeight="1">
       <c r="A312" s="132"/>
-      <c r="B312" s="323"/>
-      <c r="C312" s="323"/>
+      <c r="B312" s="338"/>
+      <c r="C312" s="338"/>
       <c r="D312" s="172"/>
-      <c r="E312" s="319"/>
+      <c r="E312" s="339"/>
       <c r="F312" s="107"/>
       <c r="G312" s="107"/>
       <c r="H312" s="107"/>
@@ -16314,10 +16313,10 @@
     </row>
     <row r="313" spans="1:29" ht="15.75" customHeight="1">
       <c r="A313" s="132"/>
-      <c r="B313" s="323"/>
-      <c r="C313" s="323"/>
+      <c r="B313" s="338"/>
+      <c r="C313" s="338"/>
       <c r="D313" s="172"/>
-      <c r="E313" s="319"/>
+      <c r="E313" s="339"/>
       <c r="F313" s="104"/>
       <c r="G313" s="104"/>
       <c r="H313" s="104"/>
@@ -16345,10 +16344,10 @@
     </row>
     <row r="314" spans="1:29" ht="15.75" customHeight="1">
       <c r="A314" s="132"/>
-      <c r="B314" s="323"/>
-      <c r="C314" s="323"/>
+      <c r="B314" s="338"/>
+      <c r="C314" s="338"/>
       <c r="D314" s="113"/>
-      <c r="E314" s="319"/>
+      <c r="E314" s="339"/>
       <c r="F314" s="104"/>
       <c r="G314" s="104"/>
       <c r="H314" s="104"/>
@@ -16376,10 +16375,10 @@
     </row>
     <row r="315" spans="1:29" ht="15.75" customHeight="1">
       <c r="A315" s="132"/>
-      <c r="B315" s="323"/>
-      <c r="C315" s="323"/>
+      <c r="B315" s="338"/>
+      <c r="C315" s="338"/>
       <c r="D315" s="149"/>
-      <c r="E315" s="319"/>
+      <c r="E315" s="339"/>
       <c r="F315" s="107"/>
       <c r="G315" s="107"/>
       <c r="H315" s="107"/>
@@ -16407,10 +16406,10 @@
     </row>
     <row r="316" spans="1:29" ht="15.75" customHeight="1">
       <c r="A316" s="132"/>
-      <c r="B316" s="323"/>
-      <c r="C316" s="323"/>
+      <c r="B316" s="338"/>
+      <c r="C316" s="338"/>
       <c r="D316" s="172"/>
-      <c r="E316" s="319"/>
+      <c r="E316" s="339"/>
       <c r="F316" s="101"/>
       <c r="G316" s="101"/>
       <c r="H316" s="101"/>
@@ -16438,10 +16437,10 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1">
       <c r="A317" s="132"/>
-      <c r="B317" s="323"/>
-      <c r="C317" s="323"/>
+      <c r="B317" s="338"/>
+      <c r="C317" s="338"/>
       <c r="D317" s="172"/>
-      <c r="E317" s="319"/>
+      <c r="E317" s="339"/>
       <c r="F317" s="101"/>
       <c r="G317" s="101"/>
       <c r="H317" s="101"/>
@@ -16469,10 +16468,10 @@
     </row>
     <row r="318" spans="1:29" ht="15.75" customHeight="1">
       <c r="A318" s="132"/>
-      <c r="B318" s="323"/>
-      <c r="C318" s="323"/>
+      <c r="B318" s="338"/>
+      <c r="C318" s="338"/>
       <c r="D318" s="113"/>
-      <c r="E318" s="319"/>
+      <c r="E318" s="339"/>
       <c r="F318" s="101"/>
       <c r="G318" s="101"/>
       <c r="H318" s="101"/>
@@ -18608,6 +18607,28 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C10:C32"/>
+    <mergeCell ref="D10:D32"/>
+    <mergeCell ref="B10:B32"/>
+    <mergeCell ref="M174:M181"/>
+    <mergeCell ref="D186:D194"/>
+    <mergeCell ref="K237:K239"/>
+    <mergeCell ref="L237:L239"/>
+    <mergeCell ref="C246:C252"/>
+    <mergeCell ref="E246:E248"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="C256:C260"/>
+    <mergeCell ref="K272:K273"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="K276:K277"/>
+    <mergeCell ref="C278:C279"/>
     <mergeCell ref="C281:C283"/>
     <mergeCell ref="B289:B318"/>
     <mergeCell ref="C289:C302"/>
@@ -18619,28 +18640,6 @@
     <mergeCell ref="C309:C318"/>
     <mergeCell ref="E309:E314"/>
     <mergeCell ref="E315:E318"/>
-    <mergeCell ref="C256:C260"/>
-    <mergeCell ref="K272:K273"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="K276:K277"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="K237:K239"/>
-    <mergeCell ref="L237:L239"/>
-    <mergeCell ref="C246:C252"/>
-    <mergeCell ref="E246:E248"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="C10:C32"/>
-    <mergeCell ref="D10:D32"/>
-    <mergeCell ref="B10:B32"/>
-    <mergeCell ref="M174:M181"/>
-    <mergeCell ref="D186:D194"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="K220:K225 K227:K228 K265 K279:K288 L95:L105 L107:L110 L112:L116 L118:L119 L121:L125 L127 L129:L386 L62:L66 L72:L93 L19:L60">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
@@ -18967,8 +18966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A2" zoomScale="42" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -18987,100 +18986,100 @@
       <c r="I2" s="290"/>
     </row>
     <row r="3" spans="4:13" ht="13.5" customHeight="1" thickBot="1">
-      <c r="D3" s="329" t="s">
+      <c r="D3" s="358" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="329"/>
-      <c r="H3" s="329" t="s">
+      <c r="E3" s="358"/>
+      <c r="H3" s="358" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="329"/>
-      <c r="L3" s="329" t="s">
+      <c r="I3" s="358"/>
+      <c r="L3" s="358" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="329"/>
+      <c r="M3" s="358"/>
     </row>
     <row r="4" spans="4:13" ht="13.5" customHeight="1" thickBot="1">
-      <c r="D4" s="329"/>
-      <c r="E4" s="329"/>
-      <c r="H4" s="329"/>
-      <c r="I4" s="329"/>
-      <c r="L4" s="329"/>
-      <c r="M4" s="329"/>
+      <c r="D4" s="358"/>
+      <c r="E4" s="358"/>
+      <c r="H4" s="358"/>
+      <c r="I4" s="358"/>
+      <c r="L4" s="358"/>
+      <c r="M4" s="358"/>
     </row>
     <row r="5" spans="4:13" ht="13.5" customHeight="1" thickBot="1">
-      <c r="D5" s="329"/>
-      <c r="E5" s="329"/>
-      <c r="H5" s="329"/>
-      <c r="I5" s="329"/>
-      <c r="L5" s="329"/>
-      <c r="M5" s="329"/>
+      <c r="D5" s="358"/>
+      <c r="E5" s="358"/>
+      <c r="H5" s="358"/>
+      <c r="I5" s="358"/>
+      <c r="L5" s="358"/>
+      <c r="M5" s="358"/>
     </row>
     <row r="6" spans="4:13" ht="13.5" customHeight="1" thickBot="1">
-      <c r="D6" s="329"/>
-      <c r="E6" s="329"/>
-      <c r="H6" s="329"/>
-      <c r="I6" s="329"/>
-      <c r="L6" s="329"/>
-      <c r="M6" s="329"/>
+      <c r="D6" s="358"/>
+      <c r="E6" s="358"/>
+      <c r="H6" s="358"/>
+      <c r="I6" s="358"/>
+      <c r="L6" s="358"/>
+      <c r="M6" s="358"/>
     </row>
     <row r="7" spans="4:13" ht="15" customHeight="1">
-      <c r="D7" s="325" t="s">
+      <c r="D7" s="359" t="s">
         <v>266</v>
       </c>
-      <c r="E7" s="325"/>
-      <c r="H7" s="325" t="s">
+      <c r="E7" s="359"/>
+      <c r="H7" s="359" t="s">
         <v>271</v>
       </c>
-      <c r="I7" s="325"/>
-      <c r="L7" s="325" t="s">
+      <c r="I7" s="359"/>
+      <c r="L7" s="359" t="s">
         <v>274</v>
       </c>
-      <c r="M7" s="325"/>
+      <c r="M7" s="359"/>
     </row>
     <row r="8" spans="4:13" ht="18.75" customHeight="1">
-      <c r="D8" s="325"/>
-      <c r="E8" s="325"/>
-      <c r="H8" s="325"/>
-      <c r="I8" s="325"/>
-      <c r="L8" s="325"/>
-      <c r="M8" s="325"/>
+      <c r="D8" s="359"/>
+      <c r="E8" s="359"/>
+      <c r="H8" s="359"/>
+      <c r="I8" s="359"/>
+      <c r="L8" s="359"/>
+      <c r="M8" s="359"/>
     </row>
     <row r="9" spans="4:13" ht="13.5" customHeight="1">
-      <c r="D9" s="326" t="s">
+      <c r="D9" s="360" t="s">
         <v>267</v>
       </c>
-      <c r="E9" s="327"/>
-      <c r="H9" s="326" t="s">
+      <c r="E9" s="361"/>
+      <c r="H9" s="360" t="s">
         <v>272</v>
       </c>
-      <c r="I9" s="327"/>
-      <c r="L9" s="326" t="s">
+      <c r="I9" s="361"/>
+      <c r="L9" s="360" t="s">
         <v>275</v>
       </c>
-      <c r="M9" s="327"/>
+      <c r="M9" s="361"/>
     </row>
     <row r="10" spans="4:13" ht="21" customHeight="1">
-      <c r="D10" s="327"/>
-      <c r="E10" s="327"/>
-      <c r="H10" s="327"/>
-      <c r="I10" s="327"/>
-      <c r="L10" s="327"/>
-      <c r="M10" s="327"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="361"/>
+      <c r="H10" s="361"/>
+      <c r="I10" s="361"/>
+      <c r="L10" s="361"/>
+      <c r="M10" s="361"/>
     </row>
     <row r="11" spans="4:13" ht="21" customHeight="1">
-      <c r="D11" s="328" t="s">
+      <c r="D11" s="362" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="328"/>
-      <c r="H11" s="328" t="s">
+      <c r="E11" s="362"/>
+      <c r="H11" s="362" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="328"/>
-      <c r="L11" s="328" t="s">
+      <c r="I11" s="362"/>
+      <c r="L11" s="362" t="s">
         <v>78</v>
       </c>
-      <c r="M11" s="328"/>
+      <c r="M11" s="362"/>
     </row>
     <row r="12" spans="4:13" ht="80.25" customHeight="1">
       <c r="D12" s="178" t="s">
@@ -19168,100 +19167,100 @@
     </row>
     <row r="21" spans="4:13" ht="13.5" thickBot="1"/>
     <row r="22" spans="4:13" ht="13.5" thickBot="1">
-      <c r="D22" s="329" t="s">
+      <c r="D22" s="358" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="329"/>
-      <c r="H22" s="329" t="s">
+      <c r="E22" s="358"/>
+      <c r="H22" s="358" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="329"/>
-      <c r="L22" s="329" t="s">
+      <c r="I22" s="358"/>
+      <c r="L22" s="358" t="s">
         <v>77</v>
       </c>
-      <c r="M22" s="329"/>
+      <c r="M22" s="358"/>
     </row>
     <row r="23" spans="4:13" ht="13.5" thickBot="1">
-      <c r="D23" s="329"/>
-      <c r="E23" s="329"/>
-      <c r="H23" s="329"/>
-      <c r="I23" s="329"/>
-      <c r="L23" s="329"/>
-      <c r="M23" s="329"/>
+      <c r="D23" s="358"/>
+      <c r="E23" s="358"/>
+      <c r="H23" s="358"/>
+      <c r="I23" s="358"/>
+      <c r="L23" s="358"/>
+      <c r="M23" s="358"/>
     </row>
     <row r="24" spans="4:13" ht="13.5" thickBot="1">
-      <c r="D24" s="329"/>
-      <c r="E24" s="329"/>
-      <c r="H24" s="329"/>
-      <c r="I24" s="329"/>
-      <c r="L24" s="329"/>
-      <c r="M24" s="329"/>
+      <c r="D24" s="358"/>
+      <c r="E24" s="358"/>
+      <c r="H24" s="358"/>
+      <c r="I24" s="358"/>
+      <c r="L24" s="358"/>
+      <c r="M24" s="358"/>
     </row>
     <row r="25" spans="4:13" ht="13.5" thickBot="1">
-      <c r="D25" s="329"/>
-      <c r="E25" s="329"/>
-      <c r="H25" s="329"/>
-      <c r="I25" s="329"/>
-      <c r="L25" s="329"/>
-      <c r="M25" s="329"/>
+      <c r="D25" s="358"/>
+      <c r="E25" s="358"/>
+      <c r="H25" s="358"/>
+      <c r="I25" s="358"/>
+      <c r="L25" s="358"/>
+      <c r="M25" s="358"/>
     </row>
     <row r="26" spans="4:13">
-      <c r="D26" s="325" t="s">
+      <c r="D26" s="359" t="s">
         <v>277</v>
       </c>
-      <c r="E26" s="325"/>
-      <c r="H26" s="325" t="s">
+      <c r="E26" s="359"/>
+      <c r="H26" s="359" t="s">
         <v>282</v>
       </c>
-      <c r="I26" s="325"/>
-      <c r="L26" s="325" t="s">
+      <c r="I26" s="359"/>
+      <c r="L26" s="359" t="s">
         <v>283</v>
       </c>
-      <c r="M26" s="325"/>
+      <c r="M26" s="359"/>
     </row>
     <row r="27" spans="4:13">
-      <c r="D27" s="325"/>
-      <c r="E27" s="325"/>
-      <c r="H27" s="325"/>
-      <c r="I27" s="325"/>
-      <c r="L27" s="325"/>
-      <c r="M27" s="325"/>
+      <c r="D27" s="359"/>
+      <c r="E27" s="359"/>
+      <c r="H27" s="359"/>
+      <c r="I27" s="359"/>
+      <c r="L27" s="359"/>
+      <c r="M27" s="359"/>
     </row>
     <row r="28" spans="4:13">
-      <c r="D28" s="326" t="s">
+      <c r="D28" s="360" t="s">
         <v>278</v>
       </c>
-      <c r="E28" s="327"/>
-      <c r="H28" s="326" t="s">
+      <c r="E28" s="361"/>
+      <c r="H28" s="360" t="s">
         <v>279</v>
       </c>
-      <c r="I28" s="327"/>
-      <c r="L28" s="326" t="s">
+      <c r="I28" s="361"/>
+      <c r="L28" s="360" t="s">
         <v>280</v>
       </c>
-      <c r="M28" s="327"/>
+      <c r="M28" s="361"/>
     </row>
     <row r="29" spans="4:13">
-      <c r="D29" s="327"/>
-      <c r="E29" s="327"/>
-      <c r="H29" s="327"/>
-      <c r="I29" s="327"/>
-      <c r="L29" s="327"/>
-      <c r="M29" s="327"/>
+      <c r="D29" s="361"/>
+      <c r="E29" s="361"/>
+      <c r="H29" s="361"/>
+      <c r="I29" s="361"/>
+      <c r="L29" s="361"/>
+      <c r="M29" s="361"/>
     </row>
     <row r="30" spans="4:13" ht="15">
-      <c r="D30" s="328" t="s">
+      <c r="D30" s="362" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="328"/>
-      <c r="H30" s="328" t="s">
+      <c r="E30" s="362"/>
+      <c r="H30" s="362" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="328"/>
-      <c r="L30" s="328" t="s">
+      <c r="I30" s="362"/>
+      <c r="L30" s="362" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="328"/>
+      <c r="M30" s="362"/>
     </row>
     <row r="31" spans="4:13" ht="85.5" customHeight="1">
       <c r="D31" s="178" t="s">
@@ -19320,15 +19319,15 @@
       <c r="M34" s="179"/>
     </row>
     <row r="35" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D35" s="331" t="s">
+      <c r="D35" s="291" t="s">
         <v>251</v>
       </c>
       <c r="E35" s="179"/>
-      <c r="H35" s="331" t="s">
+      <c r="H35" s="291" t="s">
         <v>252</v>
       </c>
       <c r="I35" s="179"/>
-      <c r="L35" s="331" t="s">
+      <c r="L35" s="291" t="s">
         <v>253</v>
       </c>
       <c r="M35" s="179"/>
@@ -19349,48 +19348,48 @@
     </row>
     <row r="41" spans="4:13" ht="13.5" thickBot="1"/>
     <row r="42" spans="4:13" ht="13.5" thickBot="1">
-      <c r="D42" s="329" t="s">
+      <c r="D42" s="358" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="329"/>
+      <c r="E42" s="358"/>
     </row>
     <row r="43" spans="4:13" ht="13.5" thickBot="1">
-      <c r="D43" s="329"/>
-      <c r="E43" s="329"/>
+      <c r="D43" s="358"/>
+      <c r="E43" s="358"/>
     </row>
     <row r="44" spans="4:13" ht="13.5" thickBot="1">
-      <c r="D44" s="329"/>
-      <c r="E44" s="329"/>
+      <c r="D44" s="358"/>
+      <c r="E44" s="358"/>
     </row>
     <row r="45" spans="4:13" ht="13.5" thickBot="1">
-      <c r="D45" s="329"/>
-      <c r="E45" s="329"/>
+      <c r="D45" s="358"/>
+      <c r="E45" s="358"/>
     </row>
     <row r="46" spans="4:13">
-      <c r="D46" s="325" t="s">
+      <c r="D46" s="359" t="s">
         <v>277</v>
       </c>
-      <c r="E46" s="325"/>
+      <c r="E46" s="359"/>
     </row>
     <row r="47" spans="4:13">
-      <c r="D47" s="325"/>
-      <c r="E47" s="325"/>
+      <c r="D47" s="359"/>
+      <c r="E47" s="359"/>
     </row>
     <row r="48" spans="4:13">
-      <c r="D48" s="326" t="s">
+      <c r="D48" s="360" t="s">
         <v>281</v>
       </c>
-      <c r="E48" s="327"/>
+      <c r="E48" s="361"/>
     </row>
     <row r="49" spans="4:5">
-      <c r="D49" s="327"/>
-      <c r="E49" s="327"/>
+      <c r="D49" s="361"/>
+      <c r="E49" s="361"/>
     </row>
     <row r="50" spans="4:5" ht="15">
-      <c r="D50" s="328" t="s">
+      <c r="D50" s="362" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="328"/>
+      <c r="E50" s="362"/>
     </row>
     <row r="51" spans="4:5" ht="89.25" customHeight="1">
       <c r="D51" s="178" t="s">
@@ -19417,7 +19416,7 @@
       <c r="E54" s="179"/>
     </row>
     <row r="55" spans="4:5" ht="24" customHeight="1">
-      <c r="D55" s="331" t="s">
+      <c r="D55" s="291" t="s">
         <v>254</v>
       </c>
       <c r="E55" s="179"/>
@@ -19430,21 +19429,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D42:E45"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="H22:I25"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="H28:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="L22:M25"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="L28:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="D30:E30"/>
     <mergeCell ref="L3:M6"/>
     <mergeCell ref="L7:M8"/>
     <mergeCell ref="L9:M10"/>
@@ -19458,6 +19442,21 @@
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="H9:I10"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="L22:M25"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="L28:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D42:E45"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="H22:I25"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D16" r:id="rId1" xr:uid="{238D623B-3095-4E8E-8294-43C0967FE179}"/>
@@ -19477,7 +19476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -19497,21 +19496,21 @@
       <c r="E2" s="185"/>
     </row>
     <row r="3" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B3" s="330" t="s">
+      <c r="B3" s="363" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
+      <c r="C3" s="363"/>
+      <c r="D3" s="363"/>
+      <c r="E3" s="363"/>
       <c r="F3" s="186"/>
       <c r="G3" s="186"/>
       <c r="H3" s="186"/>
     </row>
     <row r="4" spans="2:8" ht="45.75" customHeight="1">
-      <c r="B4" s="330"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
+      <c r="B4" s="363"/>
+      <c r="C4" s="363"/>
+      <c r="D4" s="363"/>
+      <c r="E4" s="363"/>
       <c r="F4" s="186"/>
       <c r="G4" s="186"/>
       <c r="H4" s="186"/>
